--- a/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
@@ -657,18 +657,18 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>-4.219901675839156</v>
+        <v>-4.451571125926989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.738687247081707</v>
+        <v>-3.684132176458367</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.9112017659380278</v>
+        <v>-0.9174691767967935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7502492085906747</v>
+        <v>-0.7895764718687154</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -681,18 +681,18 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.8180603285519863</v>
+        <v>0.9994038611024161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.06897826612885</v>
+        <v>1.919122307737682</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.8808904643342805</v>
+        <v>1.433500190906576</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.518558525337884</v>
+        <v>1.284619163837259</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -717,7 +717,7 @@
         <v>0.5634564390146882</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4637637662698723</v>
+        <v>0.4637637662698729</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.05778160338822132</v>
@@ -729,7 +729,7 @@
         <v>0.982388175234211</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1097741692997102</v>
+        <v>0.1097741692997103</v>
       </c>
     </row>
     <row r="8">
@@ -740,28 +740,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.520741168547342</v>
+        <v>-2.172980829730403</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.975155062483316</v>
+        <v>-2.13198337041229</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5507085703654148</v>
+        <v>-0.4091233184493804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.016191620333088</v>
+        <v>-2.292683972877791</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5857774653611715</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.5414763673612385</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.6944717111532172</v>
+        <v>-0.6871642851898578</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3703760220093987</v>
+        <v>-0.3828609233501776</v>
       </c>
     </row>
     <row r="9">
@@ -772,28 +770,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.934347128982545</v>
+        <v>2.066778347345281</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.1308932665116316</v>
+        <v>-0.06167570529378181</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.728503385534123</v>
+        <v>1.728471836892807</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.142450443915321</v>
+        <v>3.153236548776068</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.123034869930727</v>
+        <v>1.167460366268926</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I9" s="6" t="n">
+        <v>7.697605960248698</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.249055735817984</v>
+        <v>1.21634445954199</v>
       </c>
     </row>
     <row r="10">
@@ -847,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8838758763317176</v>
+        <v>1.115316795671295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.500889101941912</v>
+        <v>-1.362299208696901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1801741412753741</v>
+        <v>0.1802514029147264</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -868,16 +864,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.493235114286648</v>
+        <v>1.796440849578347</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.214952467777371</v>
+        <v>5.255584183267035</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.899973597697581</v>
+        <v>1.895870022068796</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -905,7 +901,7 @@
         <v>1.606157023490213</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.8337015682098109</v>
+        <v>-0.833701568209811</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.8227023223229708</v>
@@ -917,7 +913,7 @@
         <v>1.550347879585537</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.6343113680193952</v>
+        <v>-0.6343113680193954</v>
       </c>
     </row>
     <row r="14">
@@ -928,29 +924,27 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.806222120852708</v>
+        <v>-4.796366103787565</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.501049737190164</v>
+        <v>-3.047790019893961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.1364928386178615</v>
+        <v>-0.2367400882048723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.466083649833869</v>
+        <v>-2.742259747769059</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5641033939023379</v>
+        <v>-0.533116446705034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3360097414639833</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.3171708388931045</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -960,29 +954,27 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.7471432791201638</v>
+        <v>-0.5833409848420813</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.72372170517813</v>
+        <v>3.143568447647195</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.79262366893996</v>
+        <v>3.523308820974159</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2798688607654825</v>
+        <v>0.1650757745406858</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1629752036770199</v>
+        <v>0.1644919129410242</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9378058813374464</v>
+        <v>1.227905376981463</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8.952809938650152</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>1.660970938192987</v>
-      </c>
+        <v>10.2259284223076</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1026,7 +1018,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.282354969573068</v>
+        <v>-2.118617520040802</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1049,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.877116823553166</v>
+        <v>2.710976695567648</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="inlineStr"/>
@@ -1079,7 +1071,7 @@
         <v>1.062618563510698</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4535616214112668</v>
+        <v>0.4535616214112658</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.007700680295496094</v>
@@ -1091,7 +1083,7 @@
         <v>1.387100632038863</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2076799250700286</v>
+        <v>0.2076799250700282</v>
       </c>
     </row>
     <row r="20">
@@ -1102,22 +1094,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.483527123468583</v>
+        <v>-1.433327599491492</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.928936658462963</v>
+        <v>-1.829731883831996</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.469097231621213</v>
+        <v>-0.7092786977262302</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.040722428329595</v>
+        <v>-1.793930278839189</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.6238502881523326</v>
+        <v>-0.5652724015041872</v>
       </c>
     </row>
     <row r="21">
@@ -1128,22 +1120,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.099811715576116</v>
+        <v>1.375967344508424</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.575596068209961</v>
+        <v>2.64435460673523</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.29011569216651</v>
+        <v>3.149664357791719</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.692362959069008</v>
+        <v>2.731091215766229</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>2.282853166825077</v>
+        <v>2.546548089230419</v>
       </c>
     </row>
     <row r="22">
@@ -1190,28 +1182,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.622838537009819</v>
+        <v>-1.459759824072001</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4848867422688662</v>
+        <v>-0.4352908512836715</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.738567910103751</v>
+        <v>-1.847951365811872</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.007175707288371</v>
+        <v>-1.874256557838585</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5192506614950958</v>
+        <v>-0.4706463098964407</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4276304159764857</v>
+        <v>-0.3980636116840695</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.9019386760843755</v>
+        <v>-0.8849710525572312</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.6346270942166857</v>
+        <v>-0.5870594750220521</v>
       </c>
     </row>
     <row r="24">
@@ -1222,28 +1214,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.17618232668304</v>
+        <v>2.303830503978684</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.974166453235375</v>
+        <v>2.008575302507721</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6394515735852201</v>
+        <v>0.5075980402235739</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.494606219805947</v>
+        <v>1.826516439087002</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.397539790503993</v>
+        <v>1.659638322281635</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.612363189377544</v>
+        <v>5.125034765091419</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.8254399328317</v>
+        <v>1.468985649532328</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.129263307721027</v>
+        <v>1.279675522128045</v>
       </c>
     </row>
     <row r="25">
@@ -1267,7 +1259,7 @@
         <v>0.2801663623797138</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.9616923456438156</v>
+        <v>-0.9616923456438154</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.449513969966778</v>
@@ -1279,7 +1271,7 @@
         <v>0.5655370205304799</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.6766398551218686</v>
+        <v>-0.6766398551218685</v>
       </c>
     </row>
     <row r="26">
@@ -1290,28 +1282,26 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.8545797185205527</v>
+        <v>-0.7782306786880807</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.1497438969385028</v>
+        <v>-0.1357983173776467</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.4653122087358323</v>
+        <v>-0.4137098195350251</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.114004517119433</v>
+        <v>-2.138590758640482</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3904464867972225</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>-0.6896300369727942</v>
-      </c>
+        <v>-0.3681005738537553</v>
+      </c>
+      <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.69282935041425</v>
+        <v>-0.6982923221925433</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.9364307266236888</v>
+        <v>-0.9377554294452614</v>
       </c>
     </row>
     <row r="27">
@@ -1322,26 +1312,26 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.351458572465646</v>
+        <v>2.358703525559838</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.262117883256985</v>
+        <v>1.217656431696039</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.073509262194488</v>
+        <v>1.132622596663551</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-0.1021397340282457</v>
+        <v>-0.1138108286317233</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.421009342271693</v>
+        <v>2.2652720840047</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>7.573582911433068</v>
+        <v>8.794427869986261</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1089451168206319</v>
+        <v>0.01668041390890705</v>
       </c>
     </row>
     <row r="28">
@@ -1365,7 +1355,7 @@
         <v>0.2080541832687884</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.1685358399750035</v>
+        <v>-0.1685358399750033</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.00901825308722776</v>
@@ -1377,7 +1367,7 @@
         <v>0.2272992119892043</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.09868282463158286</v>
+        <v>-0.09868282463158275</v>
       </c>
     </row>
     <row r="29">
@@ -1388,28 +1378,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6826584995074122</v>
+        <v>-0.7066749916852187</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2369556847929029</v>
+        <v>-0.3060540100214432</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.336268897095405</v>
+        <v>-0.2886797288785938</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.8181433437044944</v>
+        <v>-0.7948083627877417</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.3497045493939238</v>
+        <v>-0.3519240996802964</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1626905295839863</v>
+        <v>-0.2049709083661409</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.3007185887303183</v>
+        <v>-0.2431696349674354</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.3820296928569807</v>
+        <v>-0.3737863697975701</v>
       </c>
     </row>
     <row r="30">
@@ -1420,28 +1410,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6087274035988078</v>
+        <v>0.6281493705378767</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8895536789028997</v>
+        <v>0.8664619066187502</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7108240220820489</v>
+        <v>0.6833476449950163</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.482151612933412</v>
+        <v>0.434273477041955</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4404429741748572</v>
+        <v>0.4623991599672847</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8766544295618316</v>
+        <v>0.8447330305565921</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.052746900322308</v>
+        <v>1.0316881099806</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.3545241381707265</v>
+        <v>0.3380410224557027</v>
       </c>
     </row>
     <row r="31">
